--- a/breeding_patterns - win, sum/interval from birthday to 1st delivery time/EP- MinIntervals_ByParentBirthSeason_and_MaxYear.xlsx
+++ b/breeding_patterns - win, sum/interval from birthday to 1st delivery time/EP- MinIntervals_ByParentBirthSeason_and_MaxYear.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t xml:space="preserve">Dam</t>
   </si>
@@ -200,325 +200,307 @@
     <t xml:space="preserve">2792</t>
   </si>
   <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">714</t>
+  </si>
+  <si>
     <t xml:space="preserve">2793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">714</t>
   </si>
   <si>
     <t xml:space="preserve">651</t>
@@ -1670,13 +1652,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>2023</v>
+        <v>1998</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>370</v>
+        <v>805</v>
       </c>
     </row>
     <row r="60">
@@ -1684,13 +1666,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>2023</v>
+        <v>1998</v>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>308</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61">
@@ -1698,13 +1680,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>2024</v>
+        <v>1998</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>266</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62">
@@ -1712,13 +1694,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>2024</v>
+        <v>1998</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>281</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63">
@@ -1729,10 +1711,10 @@
         <v>1998</v>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D63" t="n">
-        <v>805</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64">
@@ -1740,13 +1722,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65">
@@ -1754,13 +1736,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>153</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66">
@@ -1768,13 +1750,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C66" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D66" t="n">
-        <v>184</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67">
@@ -1782,13 +1764,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D67" t="n">
-        <v>197</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68">
@@ -1799,10 +1781,10 @@
         <v>1996</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69">
@@ -1816,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>427</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70">
@@ -1824,13 +1806,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>280</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71">
@@ -1838,13 +1820,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C71" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D71" t="n">
-        <v>287</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72">
@@ -1852,13 +1834,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D72" t="n">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73">
@@ -1869,10 +1851,10 @@
         <v>1996</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>395</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74">
@@ -1880,13 +1862,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C74" t="n">
         <v>10</v>
       </c>
       <c r="D74" t="n">
-        <v>336</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75">
@@ -1894,13 +1876,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C75" t="n">
         <v>10</v>
       </c>
       <c r="D75" t="n">
-        <v>369</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76">
@@ -1908,13 +1890,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
@@ -1922,13 +1904,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="n">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D77" t="n">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78">
@@ -1939,10 +1921,10 @@
         <v>2001</v>
       </c>
       <c r="C78" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D78" t="n">
-        <v>156</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79">
@@ -1953,10 +1935,10 @@
         <v>2001</v>
       </c>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D79" t="n">
-        <v>194</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80">
@@ -1964,13 +1946,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C80" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>140</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81">
@@ -1978,13 +1960,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>355</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82">
@@ -1992,13 +1974,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>380</v>
+        <v>337</v>
       </c>
     </row>
     <row r="83">
@@ -2006,13 +1988,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>98</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84">
@@ -2023,10 +2005,10 @@
         <v>2002</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>307</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85">
@@ -2037,10 +2019,10 @@
         <v>2002</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86">
@@ -2051,10 +2033,10 @@
         <v>2002</v>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>337</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87">
@@ -2062,13 +2044,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C87" t="n">
         <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>343</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88">
@@ -2076,68 +2058,12 @@
         <v>90</v>
       </c>
       <c r="B88" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C88" t="n">
         <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C89" t="n">
-        <v>3</v>
-      </c>
-      <c r="D89" t="n">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C90" t="n">
-        <v>3</v>
-      </c>
-      <c r="D90" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C91" t="n">
-        <v>3</v>
-      </c>
-      <c r="D91" t="n">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C92" t="n">
-        <v>3</v>
-      </c>
-      <c r="D92" t="n">
         <v>219</v>
       </c>
     </row>
@@ -2171,7 +2097,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" t="n">
         <v>1995</v>
@@ -2185,7 +2111,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B3" t="n">
         <v>1995</v>
@@ -2367,7 +2293,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" t="n">
         <v>2006</v>
@@ -2423,7 +2349,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B20" t="n">
         <v>2008</v>
@@ -2451,7 +2377,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B22" t="n">
         <v>2009</v>
@@ -2465,7 +2391,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" t="n">
         <v>2009</v>
@@ -2605,7 +2531,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B33" t="n">
         <v>2011</v>
@@ -2619,7 +2545,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B34" t="n">
         <v>2011</v>
@@ -2703,7 +2629,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B40" t="n">
         <v>2013</v>
@@ -2717,7 +2643,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B41" t="n">
         <v>2013</v>
@@ -2731,7 +2657,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B42" t="n">
         <v>2014</v>
@@ -2745,7 +2671,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B43" t="n">
         <v>2015</v>
@@ -2759,7 +2685,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B44" t="n">
         <v>2015</v>
@@ -2787,7 +2713,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B46" t="n">
         <v>2016</v>
@@ -2843,7 +2769,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B50" t="n">
         <v>2018</v>
@@ -2857,7 +2783,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B51" t="n">
         <v>2019</v>
@@ -2899,7 +2825,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B54" t="n">
         <v>2021</v>
@@ -2927,7 +2853,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B56" t="n">
         <v>2022</v>
@@ -2955,100 +2881,100 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n">
-        <v>2023</v>
+        <v>1998</v>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>399</v>
+        <v>791</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B59" t="n">
-        <v>2023</v>
+        <v>1998</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>436</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>2023</v>
+        <v>1996</v>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>252</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B61" t="n">
-        <v>2024</v>
+        <v>1999</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D61" t="n">
-        <v>263</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="B62" t="n">
-        <v>2024</v>
+        <v>1999</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>791</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>247</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65">
@@ -3059,233 +2985,163 @@
         <v>1996</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>187</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B66" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C66" t="n">
         <v>8</v>
       </c>
       <c r="D66" t="n">
-        <v>361</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B67" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C68" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D68" t="n">
-        <v>342</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D69" t="n">
-        <v>205</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B70" t="n">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D70" t="n">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B71" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D71" t="n">
-        <v>472</v>
+        <v>410</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B72" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C72" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>440</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D73" t="n">
-        <v>273</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C74" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>428</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B75" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B76" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C76" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C77" t="n">
-        <v>12</v>
-      </c>
-      <c r="D77" t="n">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C78" t="n">
-        <v>12</v>
-      </c>
-      <c r="D78" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2</v>
-      </c>
-      <c r="D79" t="n">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C80" t="n">
-        <v>3</v>
-      </c>
-      <c r="D80" t="n">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3</v>
-      </c>
-      <c r="D81" t="n">
         <v>235</v>
       </c>
     </row>
@@ -3319,7 +3175,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B2" t="n">
         <v>1995</v>
@@ -3333,7 +3189,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B3" t="n">
         <v>1995</v>
@@ -3347,7 +3203,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B4" t="n">
         <v>2003</v>
@@ -3361,7 +3217,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B5" t="n">
         <v>2004</v>
@@ -3375,7 +3231,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B6" t="n">
         <v>2004</v>
@@ -3389,7 +3245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B7" t="n">
         <v>2004</v>
@@ -3403,7 +3259,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B8" t="n">
         <v>2005</v>
@@ -3417,7 +3273,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B9" t="n">
         <v>2005</v>
@@ -3431,7 +3287,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B10" t="n">
         <v>2005</v>
@@ -3445,7 +3301,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B11" t="n">
         <v>2005</v>
@@ -3459,7 +3315,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B12" t="n">
         <v>2006</v>
@@ -3473,7 +3329,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B13" t="n">
         <v>2006</v>
@@ -3487,7 +3343,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B14" t="n">
         <v>2007</v>
@@ -3501,7 +3357,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B15" t="n">
         <v>2007</v>
@@ -3515,7 +3371,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B16" t="n">
         <v>2007</v>
@@ -3529,7 +3385,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B17" t="n">
         <v>2007</v>
@@ -3543,7 +3399,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B18" t="n">
         <v>2008</v>
@@ -3557,7 +3413,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B19" t="n">
         <v>2008</v>
@@ -3571,7 +3427,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B20" t="n">
         <v>2008</v>
@@ -3585,7 +3441,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B21" t="n">
         <v>2009</v>
@@ -3599,7 +3455,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B22" t="n">
         <v>2009</v>
@@ -3613,7 +3469,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B23" t="n">
         <v>2010</v>
@@ -3627,7 +3483,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B24" t="n">
         <v>1997</v>
@@ -3641,7 +3497,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B25" t="n">
         <v>2011</v>
@@ -3655,7 +3511,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B26" t="n">
         <v>2011</v>
@@ -3669,7 +3525,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B27" t="n">
         <v>2011</v>
@@ -3683,7 +3539,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B28" t="n">
         <v>2012</v>
@@ -3697,7 +3553,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B29" t="n">
         <v>2012</v>
@@ -3711,7 +3567,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B30" t="n">
         <v>2012</v>
@@ -3725,7 +3581,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B31" t="n">
         <v>1997</v>
@@ -3739,7 +3595,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B32" t="n">
         <v>2013</v>
@@ -3753,7 +3609,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B33" t="n">
         <v>2013</v>
@@ -3767,7 +3623,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B34" t="n">
         <v>2013</v>
@@ -3781,7 +3637,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B35" t="n">
         <v>2014</v>
@@ -3795,7 +3651,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B36" t="n">
         <v>2014</v>
@@ -3809,7 +3665,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B37" t="n">
         <v>2015</v>
@@ -3823,7 +3679,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B38" t="n">
         <v>2015</v>
@@ -3837,7 +3693,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B39" t="n">
         <v>2015</v>
@@ -3851,7 +3707,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B40" t="n">
         <v>2015</v>
@@ -3865,7 +3721,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B41" t="n">
         <v>2016</v>
@@ -3879,7 +3735,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B42" t="n">
         <v>2016</v>
@@ -3893,7 +3749,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B43" t="n">
         <v>2016</v>
@@ -3907,7 +3763,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B44" t="n">
         <v>2016</v>
@@ -3921,7 +3777,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B45" t="n">
         <v>2016</v>
@@ -3935,7 +3791,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B46" t="n">
         <v>2016</v>
@@ -3949,7 +3805,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B47" t="n">
         <v>2018</v>
@@ -3963,7 +3819,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B48" t="n">
         <v>2019</v>
@@ -3977,7 +3833,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B49" t="n">
         <v>2019</v>
@@ -3991,7 +3847,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B50" t="n">
         <v>2019</v>
@@ -4005,7 +3861,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B51" t="n">
         <v>2021</v>
@@ -4019,7 +3875,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B52" t="n">
         <v>2021</v>
@@ -4033,7 +3889,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B53" t="n">
         <v>2021</v>
@@ -4047,7 +3903,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B54" t="n">
         <v>2021</v>
@@ -4061,7 +3917,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B55" t="n">
         <v>2021</v>
@@ -4075,7 +3931,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B56" t="n">
         <v>2022</v>
@@ -4089,253 +3945,211 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B57" t="n">
-        <v>2023</v>
+        <v>1998</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>280</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="B58" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>341</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B59" t="n">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" t="n">
-        <v>285</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B60" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>173</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B61" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>417</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="B62" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>461</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B63" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C63" t="n">
         <v>8</v>
       </c>
       <c r="D63" t="n">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B64" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>180</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B65" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>221</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="B66" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>268</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B67" t="n">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>364</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B68" t="n">
         <v>2002</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B69" t="n">
         <v>2002</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>197</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B70" t="n">
         <v>2002</v>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>189</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B71" t="n">
         <v>2002</v>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D71" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>165</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C72" t="n">
-        <v>6</v>
-      </c>
-      <c r="D72" t="n">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>166</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7</v>
-      </c>
-      <c r="D73" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>167</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C74" t="n">
-        <v>7</v>
-      </c>
-      <c r="D74" t="n">
         <v>128</v>
       </c>
     </row>
@@ -4369,7 +4183,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B2" t="n">
         <v>2003</v>
@@ -4425,7 +4239,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B6" t="n">
         <v>2004</v>
@@ -4439,7 +4253,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B7" t="n">
         <v>2004</v>
@@ -4453,7 +4267,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B8" t="n">
         <v>2004</v>
@@ -4481,7 +4295,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B10" t="n">
         <v>2005</v>
@@ -4495,7 +4309,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B11" t="n">
         <v>2005</v>
@@ -4509,7 +4323,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B12" t="n">
         <v>2005</v>
@@ -4523,7 +4337,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B13" t="n">
         <v>2005</v>
@@ -4537,7 +4351,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B14" t="n">
         <v>2006</v>
@@ -4551,7 +4365,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B15" t="n">
         <v>2007</v>
@@ -4565,7 +4379,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B16" t="n">
         <v>2007</v>
@@ -4579,7 +4393,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B17" t="n">
         <v>2007</v>
@@ -4593,7 +4407,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B18" t="n">
         <v>2007</v>
@@ -4621,7 +4435,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B20" t="n">
         <v>2008</v>
@@ -4635,7 +4449,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B21" t="n">
         <v>2008</v>
@@ -4677,7 +4491,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B24" t="n">
         <v>2010</v>
@@ -4691,7 +4505,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B25" t="n">
         <v>1997</v>
@@ -4705,7 +4519,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B26" t="n">
         <v>2011</v>
@@ -4733,7 +4547,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B28" t="n">
         <v>2012</v>
@@ -4747,7 +4561,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B29" t="n">
         <v>2012</v>
@@ -4761,7 +4575,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B30" t="n">
         <v>2012</v>
@@ -4775,7 +4589,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B31" t="n">
         <v>1997</v>
@@ -4803,7 +4617,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B33" t="n">
         <v>2013</v>
@@ -4817,7 +4631,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B34" t="n">
         <v>2014</v>
@@ -4831,7 +4645,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B35" t="n">
         <v>2015</v>
@@ -4845,7 +4659,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B36" t="n">
         <v>2015</v>
@@ -4915,7 +4729,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B41" t="n">
         <v>2016</v>
@@ -4929,7 +4743,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B42" t="n">
         <v>2016</v>
@@ -4943,7 +4757,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B43" t="n">
         <v>2016</v>
@@ -4957,7 +4771,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B44" t="n">
         <v>2016</v>
@@ -4971,7 +4785,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B45" t="n">
         <v>2016</v>
@@ -5055,7 +4869,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B51" t="n">
         <v>2019</v>
@@ -5069,7 +4883,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B52" t="n">
         <v>2019</v>
@@ -5097,7 +4911,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B54" t="n">
         <v>2021</v>
@@ -5111,7 +4925,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B55" t="n">
         <v>2021</v>
@@ -5125,7 +4939,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B56" t="n">
         <v>2021</v>
@@ -5139,7 +4953,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B57" t="n">
         <v>2021</v>
@@ -5153,7 +4967,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="B58" t="n">
         <v>2023</v>
@@ -5167,21 +4981,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n">
-        <v>2023</v>
+        <v>1998</v>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>300</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n">
         <v>1998</v>
@@ -5190,12 +5004,12 @@
         <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>227</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n">
         <v>1998</v>
@@ -5204,12 +5018,12 @@
         <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>287</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n">
         <v>1998</v>
@@ -5218,21 +5032,21 @@
         <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>227</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B63" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>296</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64">
@@ -5246,68 +5060,68 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B65" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>197</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="B66" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C66" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>465</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="B67" t="n">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B68" t="n">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D68" t="n">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B69" t="n">
         <v>2001</v>
@@ -5316,68 +5130,68 @@
         <v>10</v>
       </c>
       <c r="D69" t="n">
-        <v>191</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B70" t="n">
         <v>2001</v>
       </c>
       <c r="C70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="B71" t="n">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="C71" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>218</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73" t="n">
         <v>2002</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>182</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B74" t="n">
         <v>2002</v>
@@ -5386,36 +5200,36 @@
         <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>270</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C75" t="n">
-        <v>3</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75"/>
       <c r="D75" t="n">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>168</v>
-      </c>
-      <c r="B76"/>
-      <c r="C76"/>
+        <v>87</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
       <c r="D76" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B77" t="n">
         <v>2002</v>
@@ -5424,40 +5238,40 @@
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>171</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="B78" t="n">
         <v>2002</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B79" t="n">
         <v>2002</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B80" t="n">
         <v>2002</v>
@@ -5466,26 +5280,26 @@
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>163</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B81" t="n">
         <v>2002</v>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B82" t="n">
         <v>2002</v>
@@ -5494,26 +5308,26 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B83" t="n">
         <v>2002</v>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>205</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B84" t="n">
         <v>2002</v>
@@ -5522,20 +5336,6 @@
         <v>7</v>
       </c>
       <c r="D84" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C85" t="n">
-        <v>7</v>
-      </c>
-      <c r="D85" t="n">
         <v>138</v>
       </c>
     </row>
